--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326716.748099195</v>
+        <v>2319543.459388912</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>102.2133755837553</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>91.10378467502365</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>28.09341625156734</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>209.93818004903</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>325.6514468237982</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>224.5543874056695</v>
       </c>
       <c r="G5" t="n">
         <v>14.83013367771037</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385219</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>143.7481343109865</v>
+        <v>61.17339989484283</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281882</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129683</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>56.87637597787469</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>282.586031366911</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>129.8110638510811</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>350.8849972524596</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>120.5254970151684</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095367</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>126.8332859537745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>109.0230897768375</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>164.963311124306</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>77.22206678602424</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>28.73448241073136</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051996</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>51.44029960352483</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>39.5596058228581</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.3458132526259</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>156.0218904380939</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>75.92882287540472</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>201.6473422926465</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>64.3419076393841</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>214.0236273888489</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>217.9981815644957</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>217.0833786692756</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>49.38162151975434</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>114.9309043193591</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>11.8401121955926</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>130.8120409536877</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2303018926191</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2303018926191</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D2" t="n">
-        <v>404.2843284558963</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E2" t="n">
-        <v>404.2843284558963</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F2" t="n">
-        <v>125.3383550191736</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
         <v>22.09252109618844</v>
@@ -4330,22 +4330,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.7472568676423</v>
+        <v>50.46970922908474</v>
       </c>
       <c r="C3" t="n">
-        <v>160.7472568676423</v>
+        <v>50.46970922908474</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
         <v>22.09252109618844</v>
@@ -4415,13 +4415,13 @@
         <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114809</v>
+        <v>439.1939517187799</v>
       </c>
       <c r="N3" t="n">
-        <v>828.8278839945615</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
         <v>828.8278839945615</v>
@@ -4439,22 +4439,22 @@
         <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>836.1767451915302</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="U3" t="n">
-        <v>607.9581328256779</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="V3" t="n">
-        <v>372.8060245939352</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="W3" t="n">
-        <v>160.7472568676423</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="X3" t="n">
-        <v>160.7472568676423</v>
+        <v>426.4453450141067</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.7472568676423</v>
+        <v>218.6850462491528</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>738.8951582090299</v>
+        <v>640.528233956994</v>
       </c>
       <c r="C5" t="n">
-        <v>409.9543028314559</v>
+        <v>271.5657170165823</v>
       </c>
       <c r="D5" t="n">
-        <v>51.68860422470547</v>
+        <v>271.5657170165823</v>
       </c>
       <c r="E5" t="n">
-        <v>51.68860422470547</v>
+        <v>271.5657170165823</v>
       </c>
       <c r="F5" t="n">
-        <v>44.743103475502</v>
+        <v>44.74310347550195</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380394</v>
+        <v>57.64391735380377</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456877</v>
+        <v>220.1747338456872</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039973</v>
+        <v>474.0852112039965</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494155</v>
+        <v>773.2160860494143</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635721</v>
+        <v>1062.555213635719</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293128</v>
+        <v>1290.582309293125</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935879</v>
+        <v>1447.523776935877</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385687</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385687</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385687</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385687</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385687</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385687</v>
+        <v>1013.993992218074</v>
       </c>
       <c r="X5" t="n">
-        <v>1114.692765124608</v>
+        <v>640.528233956994</v>
       </c>
       <c r="Y5" t="n">
-        <v>738.8951582090299</v>
+        <v>640.528233956994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>543.8787008273084</v>
+        <v>414.9419224351857</v>
       </c>
       <c r="C6" t="n">
-        <v>543.8787008273084</v>
+        <v>240.4888931540587</v>
       </c>
       <c r="D6" t="n">
-        <v>394.9442911660572</v>
+        <v>91.55448349280746</v>
       </c>
       <c r="E6" t="n">
-        <v>249.744155498394</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="F6" t="n">
-        <v>249.744155498394</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J6" t="n">
-        <v>46.97692078517045</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="K6" t="n">
-        <v>212.7583667934832</v>
+        <v>57.53734611231243</v>
       </c>
       <c r="L6" t="n">
-        <v>212.7583667934832</v>
+        <v>341.8553552584483</v>
       </c>
       <c r="M6" t="n">
-        <v>581.0776013314409</v>
+        <v>710.1745897964053</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693985</v>
+        <v>1078.493824334362</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241718</v>
+        <v>1386.808705706681</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385687</v>
+        <v>1386.808705706681</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.84741070761</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107478</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107478</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="U6" t="n">
-        <v>1005.967557761043</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="V6" t="n">
-        <v>1005.967557761043</v>
+        <v>1253.006415153942</v>
       </c>
       <c r="W6" t="n">
-        <v>751.7302010328413</v>
+        <v>998.7690584257405</v>
       </c>
       <c r="X6" t="n">
-        <v>543.8787008273084</v>
+        <v>790.9175582202076</v>
       </c>
       <c r="Y6" t="n">
-        <v>543.8787008273084</v>
+        <v>583.1572594552538</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.21405529384981</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="C7" t="n">
-        <v>87.21405529384981</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="D7" t="n">
-        <v>87.21405529384981</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888151</v>
+        <v>32.09990175888133</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611256</v>
+        <v>90.61654790611223</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236686</v>
+        <v>162.7032697236681</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400018</v>
+        <v>238.5105468400012</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057943</v>
+        <v>292.5145415057935</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918672</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="X7" t="n">
-        <v>87.21405529384981</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="Y7" t="n">
-        <v>87.21405529384981</v>
+        <v>29.7631704677137</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1525.74665604171</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1525.74665604171</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="D8" t="n">
-        <v>1167.480957434959</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>422.2956760357732</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4840,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641998</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598715</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>322.5758555962227</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="C10" t="n">
-        <v>322.5758555962227</v>
+        <v>529.7758821321488</v>
       </c>
       <c r="D10" t="n">
-        <v>322.5758555962227</v>
+        <v>379.6592427198131</v>
       </c>
       <c r="E10" t="n">
-        <v>322.5758555962227</v>
+        <v>231.7461491374199</v>
       </c>
       <c r="F10" t="n">
-        <v>175.6859080983124</v>
+        <v>84.85620163950958</v>
       </c>
       <c r="G10" t="n">
-        <v>175.6859080983124</v>
+        <v>84.85620163950958</v>
       </c>
       <c r="H10" t="n">
-        <v>175.6859080983124</v>
+        <v>84.85620163950958</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163950958</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="X10" t="n">
-        <v>322.5758555962227</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="Y10" t="n">
-        <v>322.5758555962227</v>
+        <v>698.7120650600557</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2413.343925613455</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>881.753191430675</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C13" t="n">
-        <v>712.8170085027681</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5235,16 +5235,16 @@
         <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>881.753191430675</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>881.753191430675</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>881.753191430675</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.753191430675</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,13 +5299,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
         <v>2016.139981183168</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>931.8655340243621</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>931.8655340243621</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.072954880832</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4360.722674916369</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1269.971530765645</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>980.8428919792033</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>726.1584037733164</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>436.7412337363558</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,7 +5776,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3511.115292506094</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4236.865415579181</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>3982.180927373294</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>3692.763757336334</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>3692.763757336334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>3692.763757336334</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,10 +5968,10 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,28 +5983,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>137.1762892611526</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1762892611526</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4076.539318291368</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>3907.603135363461</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>3757.486495951126</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4706.969913163155</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4706.969913163155</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4706.969913163155</v>
+        <v>1117.53298621802</v>
       </c>
       <c r="V28" t="n">
-        <v>4706.969913163155</v>
+        <v>862.8484980121334</v>
       </c>
       <c r="W28" t="n">
-        <v>4706.969913163155</v>
+        <v>862.8484980121334</v>
       </c>
       <c r="X28" t="n">
-        <v>4478.980362265138</v>
+        <v>634.8589471141161</v>
       </c>
       <c r="Y28" t="n">
-        <v>4258.187783121608</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,13 +6499,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.3109288932102</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3747459653033</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529675</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1222.300479791228</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1222.300479791228</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1222.300479791228</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>994.3109288932102</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>994.3109288932102</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
         <v>527.3450129705744</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W34" t="n">
-        <v>731.0291971045608</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,13 +6928,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6943,25 +6943,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K36" t="n">
-        <v>462.7283310300503</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L36" t="n">
-        <v>709.4934589365143</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880509</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>846.3978353108172</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C37" t="n">
-        <v>677.4616523829103</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1282.730788346944</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1028.046300141057</v>
+        <v>1278.716087159422</v>
       </c>
       <c r="W37" t="n">
-        <v>1028.046300141057</v>
+        <v>989.2989171224613</v>
       </c>
       <c r="X37" t="n">
-        <v>1028.046300141057</v>
+        <v>761.3093662244439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1028.046300141057</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,13 +7159,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K39" t="n">
-        <v>485.5200852635878</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C40" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D40" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1279.640130487927</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1024.95564228204</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>1024.95564228204</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>796.9660913840228</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y40" t="n">
-        <v>576.1735122404926</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,7 +7447,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1263.171146058931</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>1263.171146058931</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>1042.378566915401</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7690,10 +7690,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>545.1765965867977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>256.6777029392221</v>
+        <v>236.1308877972191</v>
       </c>
       <c r="O3" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.335023378128</v>
+        <v>102.9473967948386</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>125.0639538169081</v>
       </c>
       <c r="L6" t="n">
-        <v>83.65043707503887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835733</v>
+        <v>450.1033532835729</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470458</v>
+        <v>437.6152809470454</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.6882169793619</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247342</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914202</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.114737013996</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4091825776735</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>20.63789864135472</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>230.7151863772039</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>242.9997743936054</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K36" t="n">
-        <v>176.7176547498455</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K39" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>253.7371603504737</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>125.3043573700535</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>109.5615635752573</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>14.86866905763131</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.3009315505668</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>192.8130786476579</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>115.806521495103</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>106.8743568237111</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>45.57499673097738</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>130.2154619604834</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>210.3085295231726</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>24.06231309639065</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127107</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>72.21372500972842</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>34.13946175933233</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>69.15397372930178</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>169.2030318323405</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.98990566424413</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>274.6828861409984</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>15.6219216928815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327923</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703835</v>
+        <v>106137.1517703827</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252112</v>
+        <v>316711.9424252116</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313406</v>
+        <v>24677.2460931339</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.1579381715</v>
+        <v>76496.1579381716</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>283356.3453933829</v>
       </c>
       <c r="C4" t="n">
-        <v>252867.8426256216</v>
+        <v>252867.8426256218</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26432,13 +26432,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26472,46 +26472,46 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485713</v>
+        <v>58810.42201485707</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>113898.1725480225</v>
       </c>
       <c r="C6" t="n">
-        <v>156913.8224941364</v>
+        <v>156913.8224941369</v>
       </c>
       <c r="D6" t="n">
-        <v>18383.26016515569</v>
+        <v>18383.2601651552</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841426002</v>
+        <v>-85726.93967398176</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.6880626363</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029142</v>
       </c>
       <c r="I6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.096802915</v>
       </c>
       <c r="J6" t="n">
-        <v>368152.9931914975</v>
+        <v>367178.4019317757</v>
       </c>
       <c r="K6" t="n">
-        <v>415730.4419695026</v>
+        <v>414755.8507097809</v>
       </c>
       <c r="L6" t="n">
-        <v>363911.5301244648</v>
+        <v>362936.9388647432</v>
       </c>
       <c r="M6" t="n">
-        <v>305606.6728287989</v>
+        <v>304632.0815690776</v>
       </c>
       <c r="N6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029144</v>
       </c>
       <c r="O6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="P6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.096802915</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593888</v>
+        <v>117.5602045593882</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464219</v>
+        <v>372.0396308464212</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026347</v>
+        <v>82.5389438402629</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576978</v>
+        <v>260.1834596576981</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406638</v>
+        <v>95.88311714406569</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081337</v>
+        <v>302.2476419081344</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406632</v>
+        <v>95.88311714406569</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081338</v>
+        <v>302.2476419081342</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406638</v>
+        <v>95.88311714406569</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081337</v>
+        <v>302.2476419081344</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>312.9485729435642</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>160.2306051137876</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>119.3516493130714</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27511,22 +27511,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>41.75680311188961</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>39.6214449472094</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>182.321658336042</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385217</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409305</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780963173</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>13.89694614441441</v>
+        <v>96.47168056055811</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281888</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.4580015512969</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>89.55758666869448</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3712176435848</v>
+        <v>78.37121764358487</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322668</v>
+        <v>68.41045236322677</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
@@ -27827,7 +27827,7 @@
         <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>3.936966969679986</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>252.1193062211807</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>55.99104848925185</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>14.44012477716981</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.59587156758337</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,28 +31059,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246783</v>
+        <v>0.4726038374246759</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025487</v>
+        <v>4.840054050025463</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231493</v>
+        <v>18.22005944231483</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662282</v>
+        <v>40.11165994662262</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480947</v>
+        <v>60.11698038480917</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439498</v>
+        <v>74.58043007439461</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819609</v>
+        <v>82.98509856819568</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127898</v>
+        <v>84.32788422127855</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288732</v>
+        <v>79.62842981288692</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646557</v>
+        <v>67.96102257646523</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869426</v>
+        <v>51.03589764869401</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262797</v>
+        <v>29.68720080262782</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531487</v>
+        <v>10.76945994531481</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06882329832653</v>
+        <v>2.06882329832652</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397426</v>
+        <v>0.03780830699397407</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560438</v>
+        <v>0.2528653456560426</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941266</v>
+        <v>2.442146890941254</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596248</v>
+        <v>8.706109488596205</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182825</v>
+        <v>23.89022987182813</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078319</v>
+        <v>40.83220803078299</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483532</v>
+        <v>54.90394270483505</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486689</v>
+        <v>64.07031148486658</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827094</v>
+        <v>65.76606198270909</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106759</v>
+        <v>60.16309827106729</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496859</v>
+        <v>48.28619043496835</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128729</v>
+        <v>32.27803956128712</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134631</v>
+        <v>15.69983260134623</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707654</v>
+        <v>4.696862889707631</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359229</v>
+        <v>1.019224792359224</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0166358780036871</v>
+        <v>0.01663587800368702</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005372</v>
+        <v>0.2119938115005361</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886596</v>
+        <v>1.884817705886586</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761611</v>
+        <v>6.375232076761579</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308798</v>
+        <v>14.9879624730879</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342604</v>
+        <v>24.62982646342592</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072532</v>
+        <v>31.51769812072517</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094329</v>
+        <v>33.23099356094313</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898677</v>
+        <v>32.44083480898661</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736685</v>
+        <v>29.9643616473667</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275587</v>
+        <v>25.63968789275574</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846771</v>
+        <v>17.75159088846762</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651424</v>
+        <v>9.532012651651376</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513905</v>
+        <v>3.694473969513887</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477495</v>
+        <v>0.905791740047745</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912022</v>
+        <v>0.01156329880912016</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>144.9277431142228</v>
+        <v>124.3809279722199</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1623705920103</v>
+        <v>28.16237059201011</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109937</v>
+        <v>164.1725419109933</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548582</v>
+        <v>256.4752296548578</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337559</v>
+        <v>302.1523988337555</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366722</v>
+        <v>292.2617450366718</v>
       </c>
       <c r="O5" t="n">
-        <v>230.330399653946</v>
+        <v>230.3303996539456</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926787</v>
+        <v>158.5267349926783</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414946</v>
+        <v>41.04519843414921</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.3876265832896</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690028</v>
+        <v>28.05472287333206</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.1899082284201</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464219</v>
+        <v>372.0396308464212</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464219</v>
+        <v>372.0396308464212</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033527</v>
+        <v>311.4291731033524</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605755</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111147</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754319</v>
+        <v>2.360334637543065</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104147</v>
+        <v>59.10772338104131</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278388</v>
+        <v>72.81487052278371</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821537</v>
+        <v>76.5730071882152</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140652</v>
+        <v>54.54948956140638</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764935</v>
+        <v>22.91824715764923</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047531</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.353110871397</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700203</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>570.7728848187817</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>227.7313135728794</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8086013087286</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>450.0931893251301</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K36" t="n">
-        <v>327.2930933377847</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K39" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37642,10 +37642,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>460.8305752819984</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
